--- a/Source/HediffStages.xlsx
+++ b/Source/HediffStages.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Stage</t>
   </si>
   <si>
-    <t>Consc</t>
-  </si>
-  <si>
     <t>Slight</t>
   </si>
   <si>
@@ -81,16 +78,13 @@
     <t>Vomit (MTB)</t>
   </si>
   <si>
-    <t>Max 0.5</t>
-  </si>
-  <si>
     <t>Tired (+)</t>
   </si>
   <si>
     <t>Adrenaline Rush</t>
   </si>
   <si>
-    <t>Hunger (+)</t>
+    <t>Consc (x)</t>
   </si>
 </sst>
 </file>
@@ -152,9 +146,6 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,291 +475,271 @@
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="L4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="2">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="H4" s="3">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="N4" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="P4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="M7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="H6" s="3">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="N7" s="2">
         <v>0.08</v>
       </c>
-      <c r="P7" s="3">
+      <c r="O7" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K1:O1"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/HediffStages.xlsx
+++ b/Source/HediffStages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Stage</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Consc (x)</t>
+  </si>
+  <si>
+    <t>Sght (+)</t>
   </si>
 </sst>
 </file>
@@ -143,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,37 +476,40 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,35 +525,38 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,31 +564,31 @@
         <v>0.1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="2">
         <v>0.05</v>
       </c>
       <c r="E3" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -587,8 +599,11 @@
       <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,43 +611,46 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="2">
-        <v>1.125</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="2">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="H4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>0.3</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>0.9</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>0.02</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,43 +658,46 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D5" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="2">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.75</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H5" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="I5" s="2">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>0.8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>0.04</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,63 +705,66 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F6" s="2">
-        <v>1.3</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="2">
-        <v>0.65</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I6" s="2">
         <v>18</v>
       </c>
-      <c r="I6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.7</v>
       </c>
       <c r="M6" s="2">
         <v>0.7</v>
       </c>
       <c r="N6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="2">
         <v>0.06</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="1" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>0.5</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>0.08</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
